--- a/LSL/Data Conversion/upload ready/Vendor_MasterV1.0.xlsx
+++ b/LSL/Data Conversion/upload ready/Vendor_MasterV1.0.xlsx
@@ -18,12 +18,11 @@
     <sheet name="Grocery" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5550" uniqueCount="2716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5554" uniqueCount="2717">
   <si>
     <t>Win Win Advertising</t>
   </si>
@@ -8171,6 +8170,9 @@
   </si>
   <si>
     <t>SEGMENT1</t>
+  </si>
+  <si>
+    <t>USER_BATCH_ALLOCATION</t>
   </si>
 </sst>
 </file>
@@ -8501,7 +8503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8516,9 +8518,10 @@
     <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2715</v>
       </c>
@@ -8552,8 +8555,11 @@
       <c r="K1" s="1" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8614,7 +8620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8669,7 +8675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8686,7 +8692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8726,7 +8732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8757,7 +8763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8786,7 +8792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8812,7 +8818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8835,7 +8841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8887,7 +8893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9914,10 +9920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9936,7 +9942,7 @@
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2715</v>
       </c>
@@ -9973,8 +9979,11 @@
       <c r="L1" s="1" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10003,7 +10012,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10029,7 +10038,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10058,7 +10067,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10084,7 +10093,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10113,7 +10122,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10142,7 +10151,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10168,7 +10177,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10194,7 +10203,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10223,7 +10232,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10252,7 +10261,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10278,7 +10287,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10304,7 +10313,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10324,7 +10333,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10344,7 +10353,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15409,10 +15418,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:N273"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15430,9 +15439,10 @@
     <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2715</v>
       </c>
@@ -15472,8 +15482,11 @@
       <c r="M1" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>785</v>
       </c>
@@ -15508,7 +15521,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>794</v>
       </c>
@@ -15528,7 +15541,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>798</v>
       </c>
@@ -15545,7 +15558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>800</v>
       </c>
@@ -15580,7 +15593,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>807</v>
       </c>
@@ -15603,7 +15616,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>810</v>
       </c>
@@ -15638,7 +15651,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>816</v>
       </c>
@@ -15667,7 +15680,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>819</v>
       </c>
@@ -15702,7 +15715,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>827</v>
       </c>
@@ -15731,7 +15744,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>832</v>
       </c>
@@ -15760,7 +15773,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>837</v>
       </c>
@@ -15789,7 +15802,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>842</v>
       </c>
@@ -15824,7 +15837,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>848</v>
       </c>
@@ -15856,7 +15869,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>853</v>
       </c>
@@ -15888,7 +15901,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>859</v>
       </c>
@@ -23914,10 +23927,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView topLeftCell="F111" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23935,9 +23948,10 @@
     <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2715</v>
       </c>
@@ -23977,8 +23991,11 @@
       <c r="M1" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2190</v>
       </c>
@@ -24007,7 +24024,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2196</v>
       </c>
@@ -24039,7 +24056,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2202</v>
       </c>
@@ -24068,7 +24085,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2190</v>
       </c>
@@ -24100,7 +24117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2211</v>
       </c>
@@ -24123,7 +24140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2214</v>
       </c>
@@ -24152,7 +24169,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2219</v>
       </c>
@@ -24184,7 +24201,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2226</v>
       </c>
@@ -24213,7 +24230,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2230</v>
       </c>
@@ -24242,7 +24259,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2235</v>
       </c>
@@ -24274,7 +24291,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2241</v>
       </c>
@@ -24303,7 +24320,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2245</v>
       </c>
@@ -24332,7 +24349,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2250</v>
       </c>
@@ -24364,7 +24381,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2256</v>
       </c>
@@ -24399,7 +24416,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2262</v>
       </c>
